--- a/PCAcombined_predicted_variables_matrix_10.xlsx
+++ b/PCAcombined_predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E96"/>
+  <dimension ref="A1:B96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,31 +440,13 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="n">
-        <v>4</v>
-      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
         <v>0.5358534218644876</v>
       </c>
       <c r="B2" t="n">
-        <v>0.5358379105093073</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.5358316281535705</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.5358330151622941</v>
-      </c>
-      <c r="E2" t="n">
-        <v>0.5358343578416968</v>
+        <v>0.5358485938100153</v>
       </c>
     </row>
     <row r="3">
@@ -472,16 +454,7 @@
         <v>0.5361058701089981</v>
       </c>
       <c r="B3" t="n">
-        <v>0.5361231099955103</v>
-      </c>
-      <c r="C3" t="n">
-        <v>0.5361246028915408</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.5361222016646434</v>
-      </c>
-      <c r="E3" t="n">
-        <v>0.5361202407239619</v>
+        <v>0.5361222490060227</v>
       </c>
     </row>
     <row r="4">
@@ -489,16 +462,7 @@
         <v>0.5361071786675885</v>
       </c>
       <c r="B4" t="n">
-        <v>0.5361405077816952</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.5361323078701814</v>
-      </c>
-      <c r="D4" t="n">
-        <v>0.5361271944323059</v>
-      </c>
-      <c r="E4" t="n">
-        <v>0.536123811899149</v>
+        <v>0.5361282291242463</v>
       </c>
     </row>
     <row r="5">
@@ -506,16 +470,7 @@
         <v>0.5359020604105231</v>
       </c>
       <c r="B5" t="n">
-        <v>0.5359441449967095</v>
-      </c>
-      <c r="C5" t="n">
-        <v>0.5359435500190816</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.5359417482177249</v>
-      </c>
-      <c r="E5" t="n">
-        <v>0.5359401543346443</v>
+        <v>0.5359410685004423</v>
       </c>
     </row>
     <row r="6">
@@ -523,16 +478,7 @@
         <v>0.5360696332404924</v>
       </c>
       <c r="B6" t="n">
-        <v>0.5360659786333886</v>
-      </c>
-      <c r="C6" t="n">
-        <v>0.536090150325305</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.5360961243824759</v>
-      </c>
-      <c r="E6" t="n">
-        <v>0.5360976341511982</v>
+        <v>0.5360781580568397</v>
       </c>
     </row>
     <row r="7">
@@ -540,16 +486,7 @@
         <v>0.5357431115464435</v>
       </c>
       <c r="B7" t="n">
-        <v>0.5357333003216104</v>
-      </c>
-      <c r="C7" t="n">
-        <v>0.5357350905779286</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.5357380921162824</v>
-      </c>
-      <c r="E7" t="n">
-        <v>0.5357395090348861</v>
+        <v>0.5357782064483565</v>
       </c>
     </row>
     <row r="8">
@@ -557,16 +494,7 @@
         <v>0.5359614739029374</v>
       </c>
       <c r="B8" t="n">
-        <v>0.5359401381486363</v>
-      </c>
-      <c r="C8" t="n">
-        <v>0.5359198986380987</v>
-      </c>
-      <c r="D8" t="n">
-        <v>0.5359092962756957</v>
-      </c>
-      <c r="E8" t="n">
-        <v>0.5359034349629912</v>
+        <v>0.5359298626978373</v>
       </c>
     </row>
     <row r="9">
@@ -574,16 +502,7 @@
         <v>0.5357880722014499</v>
       </c>
       <c r="B9" t="n">
-        <v>0.5357904047623873</v>
-      </c>
-      <c r="C9" t="n">
-        <v>0.5357817951207464</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0.5357784488660253</v>
-      </c>
-      <c r="E9" t="n">
-        <v>0.5357765873859579</v>
+        <v>0.5358220460031409</v>
       </c>
     </row>
     <row r="10">
@@ -591,16 +510,7 @@
         <v>0.5362234568734514</v>
       </c>
       <c r="B10" t="n">
-        <v>0.536220223892673</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.5362115664458952</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.5362074250760048</v>
-      </c>
-      <c r="E10" t="n">
-        <v>0.5362052010255812</v>
+        <v>0.5362564765000982</v>
       </c>
     </row>
     <row r="11">
@@ -608,16 +518,7 @@
         <v>0.5358107015034248</v>
       </c>
       <c r="B11" t="n">
-        <v>0.5358616085269441</v>
-      </c>
-      <c r="C11" t="n">
-        <v>0.5358681538444491</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0.5358691616110106</v>
-      </c>
-      <c r="E11" t="n">
-        <v>0.5358681362295272</v>
+        <v>0.5358827491133799</v>
       </c>
     </row>
     <row r="12">
@@ -625,16 +526,7 @@
         <v>0.5358754323446145</v>
       </c>
       <c r="B12" t="n">
-        <v>0.5359342236046214</v>
-      </c>
-      <c r="C12" t="n">
-        <v>0.5359355273185263</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0.5359298231953443</v>
-      </c>
-      <c r="E12" t="n">
-        <v>0.5359254081524377</v>
+        <v>0.5359301798910862</v>
       </c>
     </row>
     <row r="13">
@@ -642,16 +534,7 @@
         <v>0.5359230368279944</v>
       </c>
       <c r="B13" t="n">
-        <v>0.5359488443936382</v>
-      </c>
-      <c r="C13" t="n">
-        <v>0.5359543409573739</v>
-      </c>
-      <c r="D13" t="n">
-        <v>0.5359515919925473</v>
-      </c>
-      <c r="E13" t="n">
-        <v>0.5359485242404779</v>
+        <v>0.5359788988394554</v>
       </c>
     </row>
     <row r="14">
@@ -659,16 +542,7 @@
         <v>0.535892951731906</v>
       </c>
       <c r="B14" t="n">
-        <v>0.5359897804249396</v>
-      </c>
-      <c r="C14" t="n">
-        <v>0.5360014827997973</v>
-      </c>
-      <c r="D14" t="n">
-        <v>0.5359990654025403</v>
-      </c>
-      <c r="E14" t="n">
-        <v>0.5359957281088801</v>
+        <v>0.5360032211117876</v>
       </c>
     </row>
     <row r="15">
@@ -676,16 +550,7 @@
         <v>0.5358405171987668</v>
       </c>
       <c r="B15" t="n">
-        <v>0.5359106724586413</v>
-      </c>
-      <c r="C15" t="n">
-        <v>0.5359046745944229</v>
-      </c>
-      <c r="D15" t="n">
-        <v>0.535897406820269</v>
-      </c>
-      <c r="E15" t="n">
-        <v>0.5358920900674693</v>
+        <v>0.5359382420707978</v>
       </c>
     </row>
     <row r="16">
@@ -693,16 +558,7 @@
         <v>0.5360813524583667</v>
       </c>
       <c r="B16" t="n">
-        <v>0.5361592222852517</v>
-      </c>
-      <c r="C16" t="n">
-        <v>0.5361491514944964</v>
-      </c>
-      <c r="D16" t="n">
-        <v>0.5361393331257903</v>
-      </c>
-      <c r="E16" t="n">
-        <v>0.536133362782775</v>
+        <v>0.5361776266843249</v>
       </c>
     </row>
     <row r="17">
@@ -710,16 +566,7 @@
         <v>0.5362174041869479</v>
       </c>
       <c r="B17" t="n">
-        <v>0.5362220203987064</v>
-      </c>
-      <c r="C17" t="n">
-        <v>0.5362182734388168</v>
-      </c>
-      <c r="D17" t="n">
-        <v>0.5362126645511835</v>
-      </c>
-      <c r="E17" t="n">
-        <v>0.536209161759347</v>
+        <v>0.53623064800095</v>
       </c>
     </row>
     <row r="18">
@@ -727,16 +574,7 @@
         <v>0.5358540272704295</v>
       </c>
       <c r="B18" t="n">
-        <v>0.5358822281771307</v>
-      </c>
-      <c r="C18" t="n">
-        <v>0.5358786264884511</v>
-      </c>
-      <c r="D18" t="n">
-        <v>0.5358718010825364</v>
-      </c>
-      <c r="E18" t="n">
-        <v>0.5358669462229108</v>
+        <v>0.5359071467534902</v>
       </c>
     </row>
     <row r="19">
@@ -744,16 +582,7 @@
         <v>0.5360274717026243</v>
       </c>
       <c r="B19" t="n">
-        <v>0.5361118790148649</v>
-      </c>
-      <c r="C19" t="n">
-        <v>0.5361396544812295</v>
-      </c>
-      <c r="D19" t="n">
-        <v>0.5361421354635234</v>
-      </c>
-      <c r="E19" t="n">
-        <v>0.5361405290953848</v>
+        <v>0.5361719621114179</v>
       </c>
     </row>
     <row r="20">
@@ -761,16 +590,7 @@
         <v>0.5360862342989979</v>
       </c>
       <c r="B20" t="n">
-        <v>0.5361156596539812</v>
-      </c>
-      <c r="C20" t="n">
-        <v>0.5360983123576714</v>
-      </c>
-      <c r="D20" t="n">
-        <v>0.5360869673988621</v>
-      </c>
-      <c r="E20" t="n">
-        <v>0.5360802805506822</v>
+        <v>0.5361111250221452</v>
       </c>
     </row>
     <row r="21">
@@ -778,16 +598,7 @@
         <v>0.536210405387309</v>
       </c>
       <c r="B21" t="n">
-        <v>0.5362754227935691</v>
-      </c>
-      <c r="C21" t="n">
-        <v>0.5362693540051165</v>
-      </c>
-      <c r="D21" t="n">
-        <v>0.536261449835894</v>
-      </c>
-      <c r="E21" t="n">
-        <v>0.536256711163466</v>
+        <v>0.536271783710948</v>
       </c>
     </row>
     <row r="22">
@@ -795,16 +606,7 @@
         <v>0.5360812375967345</v>
       </c>
       <c r="B22" t="n">
-        <v>0.5361153300142883</v>
-      </c>
-      <c r="C22" t="n">
-        <v>0.53612349324188</v>
-      </c>
-      <c r="D22" t="n">
-        <v>0.5361204220377926</v>
-      </c>
-      <c r="E22" t="n">
-        <v>0.5361172660802703</v>
+        <v>0.5361222950364011</v>
       </c>
     </row>
     <row r="23">
@@ -812,16 +614,7 @@
         <v>0.5358052930957063</v>
       </c>
       <c r="B23" t="n">
-        <v>0.5358724871312789</v>
-      </c>
-      <c r="C23" t="n">
-        <v>0.5358797713875637</v>
-      </c>
-      <c r="D23" t="n">
-        <v>0.5358750071244632</v>
-      </c>
-      <c r="E23" t="n">
-        <v>0.5358703152327967</v>
+        <v>0.535865761494318</v>
       </c>
     </row>
     <row r="24">
@@ -829,16 +622,7 @@
         <v>0.5361979305347756</v>
       </c>
       <c r="B24" t="n">
-        <v>0.5370926605229245</v>
-      </c>
-      <c r="C24" t="n">
-        <v>0.536934001452521</v>
-      </c>
-      <c r="D24" t="n">
-        <v>0.5368596945674811</v>
-      </c>
-      <c r="E24" t="n">
-        <v>0.5368200933191936</v>
+        <v>0.5365395258087992</v>
       </c>
     </row>
     <row r="25">
@@ -846,16 +630,7 @@
         <v>0.5363267362657849</v>
       </c>
       <c r="B25" t="n">
-        <v>0.5362150697677486</v>
-      </c>
-      <c r="C25" t="n">
-        <v>0.5361985854534222</v>
-      </c>
-      <c r="D25" t="n">
-        <v>0.5361914884948074</v>
-      </c>
-      <c r="E25" t="n">
-        <v>0.5361890992613646</v>
+        <v>0.5362109839740372</v>
       </c>
     </row>
     <row r="26">
@@ -863,16 +638,7 @@
         <v>0.5359962923223281</v>
       </c>
       <c r="B26" t="n">
-        <v>0.5361040095944014</v>
-      </c>
-      <c r="C26" t="n">
-        <v>0.5361131608831092</v>
-      </c>
-      <c r="D26" t="n">
-        <v>0.5361025758791038</v>
-      </c>
-      <c r="E26" t="n">
-        <v>0.5360943029915136</v>
+        <v>0.5360194537530255</v>
       </c>
     </row>
     <row r="27">
@@ -880,16 +646,7 @@
         <v>0.5360524360699181</v>
       </c>
       <c r="B27" t="n">
-        <v>0.5359818136899089</v>
-      </c>
-      <c r="C27" t="n">
-        <v>0.5360044219391743</v>
-      </c>
-      <c r="D27" t="n">
-        <v>0.5360125762549074</v>
-      </c>
-      <c r="E27" t="n">
-        <v>0.5360166673358098</v>
+        <v>0.5359911103515858</v>
       </c>
     </row>
     <row r="28">
@@ -897,16 +654,7 @@
         <v>0.5364211144392426</v>
       </c>
       <c r="B28" t="n">
-        <v>0.5364978680698158</v>
-      </c>
-      <c r="C28" t="n">
-        <v>0.5364761897138387</v>
-      </c>
-      <c r="D28" t="n">
-        <v>0.5364774009690348</v>
-      </c>
-      <c r="E28" t="n">
-        <v>0.536480208376413</v>
+        <v>0.5364327565184305</v>
       </c>
     </row>
     <row r="29">
@@ -914,16 +662,7 @@
         <v>0.5362379091551543</v>
       </c>
       <c r="B29" t="n">
-        <v>0.5367888053559036</v>
-      </c>
-      <c r="C29" t="n">
-        <v>0.5368594518339694</v>
-      </c>
-      <c r="D29" t="n">
-        <v>0.5368871727099667</v>
-      </c>
-      <c r="E29" t="n">
-        <v>0.5368971341903306</v>
+        <v>0.5368212037639079</v>
       </c>
     </row>
     <row r="30">
@@ -931,16 +670,7 @@
         <v>0.5364078933127246</v>
       </c>
       <c r="B30" t="n">
-        <v>0.536359695039932</v>
-      </c>
-      <c r="C30" t="n">
-        <v>0.5363667713822297</v>
-      </c>
-      <c r="D30" t="n">
-        <v>0.5363703655273627</v>
-      </c>
-      <c r="E30" t="n">
-        <v>0.5363735506053728</v>
+        <v>0.536379396134439</v>
       </c>
     </row>
     <row r="31">
@@ -948,16 +678,7 @@
         <v>0.5358007942740031</v>
       </c>
       <c r="B31" t="n">
-        <v>0.5356872523593748</v>
-      </c>
-      <c r="C31" t="n">
-        <v>0.5357362845049572</v>
-      </c>
-      <c r="D31" t="n">
-        <v>0.53574836962691</v>
-      </c>
-      <c r="E31" t="n">
-        <v>0.5357519661708899</v>
+        <v>0.5357488697103219</v>
       </c>
     </row>
     <row r="32">
@@ -965,16 +686,7 @@
         <v>0.5363606664630972</v>
       </c>
       <c r="B32" t="n">
-        <v>0.5362854242481307</v>
-      </c>
-      <c r="C32" t="n">
-        <v>0.5363019126834369</v>
-      </c>
-      <c r="D32" t="n">
-        <v>0.5363115710998119</v>
-      </c>
-      <c r="E32" t="n">
-        <v>0.5363173254667875</v>
+        <v>0.5363405014874947</v>
       </c>
     </row>
     <row r="33">
@@ -982,16 +694,7 @@
         <v>0.5364033169281834</v>
       </c>
       <c r="B33" t="n">
-        <v>0.5363929473697051</v>
-      </c>
-      <c r="C33" t="n">
-        <v>0.5364174057475282</v>
-      </c>
-      <c r="D33" t="n">
-        <v>0.5364253382350732</v>
-      </c>
-      <c r="E33" t="n">
-        <v>0.5364288738191139</v>
+        <v>0.5364602972145824</v>
       </c>
     </row>
     <row r="34">
@@ -999,16 +702,7 @@
         <v>0.5355764605575096</v>
       </c>
       <c r="B34" t="n">
-        <v>0.5355263319530569</v>
-      </c>
-      <c r="C34" t="n">
-        <v>0.5355049080098363</v>
-      </c>
-      <c r="D34" t="n">
-        <v>0.53550134329691</v>
-      </c>
-      <c r="E34" t="n">
-        <v>0.5355001842251118</v>
+        <v>0.5355281277068132</v>
       </c>
     </row>
     <row r="35">
@@ -1016,16 +710,7 @@
         <v>0.5364550030877975</v>
       </c>
       <c r="B35" t="n">
-        <v>0.5364666615381488</v>
-      </c>
-      <c r="C35" t="n">
-        <v>0.5364652325482975</v>
-      </c>
-      <c r="D35" t="n">
-        <v>0.5364653624103958</v>
-      </c>
-      <c r="E35" t="n">
-        <v>0.5364657044959261</v>
+        <v>0.5364691967037907</v>
       </c>
     </row>
     <row r="36">
@@ -1033,16 +718,7 @@
         <v>0.5364755270717443</v>
       </c>
       <c r="B36" t="n">
-        <v>0.5364470830698446</v>
-      </c>
-      <c r="C36" t="n">
-        <v>0.5364446195355197</v>
-      </c>
-      <c r="D36" t="n">
-        <v>0.5364462850896503</v>
-      </c>
-      <c r="E36" t="n">
-        <v>0.5364478307875158</v>
+        <v>0.5364652140538435</v>
       </c>
     </row>
     <row r="37">
@@ -1050,16 +726,7 @@
         <v>0.5364648988108884</v>
       </c>
       <c r="B37" t="n">
-        <v>0.5364648555940978</v>
-      </c>
-      <c r="C37" t="n">
-        <v>0.5364433569196233</v>
-      </c>
-      <c r="D37" t="n">
-        <v>0.5364352292896493</v>
-      </c>
-      <c r="E37" t="n">
-        <v>0.5364316252756339</v>
+        <v>0.5364549835381862</v>
       </c>
     </row>
     <row r="38">
@@ -1067,16 +734,7 @@
         <v>0.5363893673915381</v>
       </c>
       <c r="B38" t="n">
-        <v>0.5363488924908039</v>
-      </c>
-      <c r="C38" t="n">
-        <v>0.5363607690149611</v>
-      </c>
-      <c r="D38" t="n">
-        <v>0.5363663494368082</v>
-      </c>
-      <c r="E38" t="n">
-        <v>0.5363691147037261</v>
+        <v>0.5363818013154813</v>
       </c>
     </row>
     <row r="39">
@@ -1084,16 +742,7 @@
         <v>0.536374736067015</v>
       </c>
       <c r="B39" t="n">
-        <v>0.5363593326755697</v>
-      </c>
-      <c r="C39" t="n">
-        <v>0.5363490556098048</v>
-      </c>
-      <c r="D39" t="n">
-        <v>0.5363458589144162</v>
-      </c>
-      <c r="E39" t="n">
-        <v>0.5363445424419055</v>
+        <v>0.5363737286710932</v>
       </c>
     </row>
     <row r="40">
@@ -1101,16 +750,7 @@
         <v>0.5364540347123794</v>
       </c>
       <c r="B40" t="n">
-        <v>0.5364519857927439</v>
-      </c>
-      <c r="C40" t="n">
-        <v>0.5364471302613837</v>
-      </c>
-      <c r="D40" t="n">
-        <v>0.5364445240799952</v>
-      </c>
-      <c r="E40" t="n">
-        <v>0.53644319630243</v>
+        <v>0.5364582162321822</v>
       </c>
     </row>
     <row r="41">
@@ -1118,16 +758,7 @@
         <v>0.5363415041915602</v>
       </c>
       <c r="B41" t="n">
-        <v>0.5363281327753552</v>
-      </c>
-      <c r="C41" t="n">
-        <v>0.5363218210951886</v>
-      </c>
-      <c r="D41" t="n">
-        <v>0.5363200507326766</v>
-      </c>
-      <c r="E41" t="n">
-        <v>0.5363196236925171</v>
+        <v>0.5363245043370861</v>
       </c>
     </row>
     <row r="42">
@@ -1135,16 +766,7 @@
         <v>0.536378424106407</v>
       </c>
       <c r="B42" t="n">
-        <v>0.536367526380808</v>
-      </c>
-      <c r="C42" t="n">
-        <v>0.5363633441399757</v>
-      </c>
-      <c r="D42" t="n">
-        <v>0.5363625725050999</v>
-      </c>
-      <c r="E42" t="n">
-        <v>0.5363623291253838</v>
+        <v>0.5363918711445003</v>
       </c>
     </row>
     <row r="43">
@@ -1152,16 +774,7 @@
         <v>0.5364164715796672</v>
       </c>
       <c r="B43" t="n">
-        <v>0.5363942534124393</v>
-      </c>
-      <c r="C43" t="n">
-        <v>0.5363906462542263</v>
-      </c>
-      <c r="D43" t="n">
-        <v>0.5363892388487421</v>
-      </c>
-      <c r="E43" t="n">
-        <v>0.5363885585512175</v>
+        <v>0.5364073518385893</v>
       </c>
     </row>
     <row r="44">
@@ -1169,16 +782,7 @@
         <v>0.5363880181298608</v>
       </c>
       <c r="B44" t="n">
-        <v>0.5364026981055899</v>
-      </c>
-      <c r="C44" t="n">
-        <v>0.5363955143233706</v>
-      </c>
-      <c r="D44" t="n">
-        <v>0.5363931535445734</v>
-      </c>
-      <c r="E44" t="n">
-        <v>0.5363922587533377</v>
+        <v>0.5364270951259694</v>
       </c>
     </row>
     <row r="45">
@@ -1186,16 +790,7 @@
         <v>0.5364773732214027</v>
       </c>
       <c r="B45" t="n">
-        <v>0.5364391848025764</v>
-      </c>
-      <c r="C45" t="n">
-        <v>0.5364173749840901</v>
-      </c>
-      <c r="D45" t="n">
-        <v>0.536412035271997</v>
-      </c>
-      <c r="E45" t="n">
-        <v>0.536410529361375</v>
+        <v>0.5364619792754534</v>
       </c>
     </row>
     <row r="46">
@@ -1203,16 +798,7 @@
         <v>0.5352343944884749</v>
       </c>
       <c r="B46" t="n">
-        <v>0.5352383053492006</v>
-      </c>
-      <c r="C46" t="n">
-        <v>0.535221287861212</v>
-      </c>
-      <c r="D46" t="n">
-        <v>0.5352115481757296</v>
-      </c>
-      <c r="E46" t="n">
-        <v>0.5352042022726682</v>
+        <v>0.5352870974463444</v>
       </c>
     </row>
     <row r="47">
@@ -1220,16 +806,7 @@
         <v>0.5354047306834341</v>
       </c>
       <c r="B47" t="n">
-        <v>0.5353954358197063</v>
-      </c>
-      <c r="C47" t="n">
-        <v>0.5353849872349266</v>
-      </c>
-      <c r="D47" t="n">
-        <v>0.5353789969228129</v>
-      </c>
-      <c r="E47" t="n">
-        <v>0.5353740038524768</v>
+        <v>0.5354526308987587</v>
       </c>
     </row>
     <row r="48">
@@ -1237,16 +814,7 @@
         <v>0.535491405800433</v>
       </c>
       <c r="B48" t="n">
-        <v>0.5354765413633166</v>
-      </c>
-      <c r="C48" t="n">
-        <v>0.5354689060444644</v>
-      </c>
-      <c r="D48" t="n">
-        <v>0.5354643312752124</v>
-      </c>
-      <c r="E48" t="n">
-        <v>0.5354600566417037</v>
+        <v>0.5355358844936976</v>
       </c>
     </row>
     <row r="49">
@@ -1254,16 +822,7 @@
         <v>0.5356157296855724</v>
       </c>
       <c r="B49" t="n">
-        <v>0.5356164146716128</v>
-      </c>
-      <c r="C49" t="n">
-        <v>0.5356076397288908</v>
-      </c>
-      <c r="D49" t="n">
-        <v>0.5356024947419435</v>
-      </c>
-      <c r="E49" t="n">
-        <v>0.5355982523865043</v>
+        <v>0.5356607488260583</v>
       </c>
     </row>
     <row r="50">
@@ -1271,16 +830,7 @@
         <v>0.5359128434071883</v>
       </c>
       <c r="B50" t="n">
-        <v>0.5359371428212664</v>
-      </c>
-      <c r="C50" t="n">
-        <v>0.5359352974398626</v>
-      </c>
-      <c r="D50" t="n">
-        <v>0.5359331466883716</v>
-      </c>
-      <c r="E50" t="n">
-        <v>0.5359308348125188</v>
+        <v>0.5359790028421363</v>
       </c>
     </row>
     <row r="51">
@@ -1288,16 +838,7 @@
         <v>0.5355182217873866</v>
       </c>
       <c r="B51" t="n">
-        <v>0.5355068540984272</v>
-      </c>
-      <c r="C51" t="n">
-        <v>0.5354896103488511</v>
-      </c>
-      <c r="D51" t="n">
-        <v>0.5354822619549389</v>
-      </c>
-      <c r="E51" t="n">
-        <v>0.5354772396984875</v>
+        <v>0.53553835610268</v>
       </c>
     </row>
     <row r="52">
@@ -1305,16 +846,7 @@
         <v>0.5355182217873866</v>
       </c>
       <c r="B52" t="n">
-        <v>0.5355068540984272</v>
-      </c>
-      <c r="C52" t="n">
-        <v>0.5354896103488511</v>
-      </c>
-      <c r="D52" t="n">
-        <v>0.5354822619549389</v>
-      </c>
-      <c r="E52" t="n">
-        <v>0.5354772396984875</v>
+        <v>0.53553835610268</v>
       </c>
     </row>
     <row r="53">
@@ -1322,16 +854,7 @@
         <v>0.5353553141779241</v>
       </c>
       <c r="B53" t="n">
-        <v>0.5353217298896104</v>
-      </c>
-      <c r="C53" t="n">
-        <v>0.535312282800723</v>
-      </c>
-      <c r="D53" t="n">
-        <v>0.5353079350742058</v>
-      </c>
-      <c r="E53" t="n">
-        <v>0.5353035527480587</v>
+        <v>0.5353975394158936</v>
       </c>
     </row>
     <row r="54">
@@ -1339,16 +862,7 @@
         <v>0.5358857813782475</v>
       </c>
       <c r="B54" t="n">
-        <v>0.5358895073744402</v>
-      </c>
-      <c r="C54" t="n">
-        <v>0.5358811280589423</v>
-      </c>
-      <c r="D54" t="n">
-        <v>0.5358769088290603</v>
-      </c>
-      <c r="E54" t="n">
-        <v>0.5358737504545269</v>
+        <v>0.5359262859041306</v>
       </c>
     </row>
     <row r="55">
@@ -1356,16 +870,7 @@
         <v>0.5353915048835105</v>
       </c>
       <c r="B55" t="n">
-        <v>0.5353695539775783</v>
-      </c>
-      <c r="C55" t="n">
-        <v>0.5353703263330688</v>
-      </c>
-      <c r="D55" t="n">
-        <v>0.535367382921022</v>
-      </c>
-      <c r="E55" t="n">
-        <v>0.535363324193435</v>
+        <v>0.5354364715628157</v>
       </c>
     </row>
     <row r="56">
@@ -1373,16 +878,7 @@
         <v>0.5354284177398505</v>
       </c>
       <c r="B56" t="n">
-        <v>0.5354593331579733</v>
-      </c>
-      <c r="C56" t="n">
-        <v>0.5354459964131602</v>
-      </c>
-      <c r="D56" t="n">
-        <v>0.5354369496712248</v>
-      </c>
-      <c r="E56" t="n">
-        <v>0.5354303081100258</v>
+        <v>0.5354933290950048</v>
       </c>
     </row>
     <row r="57">
@@ -1390,16 +886,7 @@
         <v>0.5354055616434445</v>
       </c>
       <c r="B57" t="n">
-        <v>0.5354083614301013</v>
-      </c>
-      <c r="C57" t="n">
-        <v>0.5353978683342675</v>
-      </c>
-      <c r="D57" t="n">
-        <v>0.5353896043999559</v>
-      </c>
-      <c r="E57" t="n">
-        <v>0.5353834396417163</v>
+        <v>0.5354754569634516</v>
       </c>
     </row>
     <row r="58">
@@ -1407,16 +894,7 @@
         <v>0.5352929884637948</v>
       </c>
       <c r="B58" t="n">
-        <v>0.5353259049137019</v>
-      </c>
-      <c r="C58" t="n">
-        <v>0.5353133397461945</v>
-      </c>
-      <c r="D58" t="n">
-        <v>0.5353059085549023</v>
-      </c>
-      <c r="E58" t="n">
-        <v>0.5353005964237093</v>
+        <v>0.535366762868269</v>
       </c>
     </row>
     <row r="59">
@@ -1424,16 +902,7 @@
         <v>0.5355084913644094</v>
       </c>
       <c r="B59" t="n">
-        <v>0.5355238794967085</v>
-      </c>
-      <c r="C59" t="n">
-        <v>0.5355085678841089</v>
-      </c>
-      <c r="D59" t="n">
-        <v>0.5355010572232605</v>
-      </c>
-      <c r="E59" t="n">
-        <v>0.5354959913400721</v>
+        <v>0.5355558051518452</v>
       </c>
     </row>
     <row r="60">
@@ -1441,16 +910,7 @@
         <v>0.5357321343350274</v>
       </c>
       <c r="B60" t="n">
-        <v>0.535727799967624</v>
-      </c>
-      <c r="C60" t="n">
-        <v>0.5357167374939357</v>
-      </c>
-      <c r="D60" t="n">
-        <v>0.5357115517215907</v>
-      </c>
-      <c r="E60" t="n">
-        <v>0.5357083827832819</v>
+        <v>0.5357456889604736</v>
       </c>
     </row>
     <row r="61">
@@ -1458,16 +918,7 @@
         <v>0.5362085231135287</v>
       </c>
       <c r="B61" t="n">
-        <v>0.5362067955503926</v>
-      </c>
-      <c r="C61" t="n">
-        <v>0.5362029938052028</v>
-      </c>
-      <c r="D61" t="n">
-        <v>0.5362011813891903</v>
-      </c>
-      <c r="E61" t="n">
-        <v>0.5361999762402374</v>
+        <v>0.5362374519784781</v>
       </c>
     </row>
     <row r="62">
@@ -1475,16 +926,7 @@
         <v>0.5352673472094388</v>
       </c>
       <c r="B62" t="n">
-        <v>0.5351933979443892</v>
-      </c>
-      <c r="C62" t="n">
-        <v>0.5352220847269296</v>
-      </c>
-      <c r="D62" t="n">
-        <v>0.5352268469064241</v>
-      </c>
-      <c r="E62" t="n">
-        <v>0.5352259237561161</v>
+        <v>0.5353253643925778</v>
       </c>
     </row>
     <row r="63">
@@ -1492,16 +934,7 @@
         <v>0.5357370076984243</v>
       </c>
       <c r="B63" t="n">
-        <v>0.5357124769660186</v>
-      </c>
-      <c r="C63" t="n">
-        <v>0.5356746406034857</v>
-      </c>
-      <c r="D63" t="n">
-        <v>0.5356598516001976</v>
-      </c>
-      <c r="E63" t="n">
-        <v>0.5356526251500225</v>
+        <v>0.5356792428309365</v>
       </c>
     </row>
     <row r="64">
@@ -1509,16 +942,7 @@
         <v>0.5355209660562849</v>
       </c>
       <c r="B64" t="n">
-        <v>0.5354541854844436</v>
-      </c>
-      <c r="C64" t="n">
-        <v>0.535458968750946</v>
-      </c>
-      <c r="D64" t="n">
-        <v>0.5354611050930733</v>
-      </c>
-      <c r="E64" t="n">
-        <v>0.5354609463183814</v>
+        <v>0.5355292730282575</v>
       </c>
     </row>
     <row r="65">
@@ -1526,16 +950,7 @@
         <v>0.5359476262122123</v>
       </c>
       <c r="B65" t="n">
-        <v>0.5359764519769942</v>
-      </c>
-      <c r="C65" t="n">
-        <v>0.5359577292239524</v>
-      </c>
-      <c r="D65" t="n">
-        <v>0.5359489372090797</v>
-      </c>
-      <c r="E65" t="n">
-        <v>0.5359441953411133</v>
+        <v>0.5359787953484491</v>
       </c>
     </row>
     <row r="66">
@@ -1543,16 +958,7 @@
         <v>0.5354982931173061</v>
       </c>
       <c r="B66" t="n">
-        <v>0.5354770218306288</v>
-      </c>
-      <c r="C66" t="n">
-        <v>0.5354898022710091</v>
-      </c>
-      <c r="D66" t="n">
-        <v>0.5354890179988898</v>
-      </c>
-      <c r="E66" t="n">
-        <v>0.5354862275271933</v>
+        <v>0.5355502847787634</v>
       </c>
     </row>
     <row r="67">
@@ -1560,16 +966,7 @@
         <v>0.5354109226602727</v>
       </c>
       <c r="B67" t="n">
-        <v>0.5355029704511967</v>
-      </c>
-      <c r="C67" t="n">
-        <v>0.5354973298121875</v>
-      </c>
-      <c r="D67" t="n">
-        <v>0.5354886751335747</v>
-      </c>
-      <c r="E67" t="n">
-        <v>0.5354819003094259</v>
+        <v>0.5355567676903679</v>
       </c>
     </row>
     <row r="68">
@@ -1577,16 +974,7 @@
         <v>-0.9209375997097311</v>
       </c>
       <c r="B68" t="n">
-        <v>-0.9358798394533094</v>
-      </c>
-      <c r="C68" t="n">
-        <v>-0.9427357032171655</v>
-      </c>
-      <c r="D68" t="n">
-        <v>-0.9489522565672128</v>
-      </c>
-      <c r="E68" t="n">
-        <v>-0.9545673498587303</v>
+        <v>-0.9223500117067812</v>
       </c>
     </row>
     <row r="69">
@@ -1594,16 +982,7 @@
         <v>-0.9374928891943226</v>
       </c>
       <c r="B69" t="n">
-        <v>-0.9553559403718583</v>
-      </c>
-      <c r="C69" t="n">
-        <v>-0.9608634799586789</v>
-      </c>
-      <c r="D69" t="n">
-        <v>-0.9665856997835048</v>
-      </c>
-      <c r="E69" t="n">
-        <v>-0.9719874639284682</v>
+        <v>-0.9372835408826093</v>
       </c>
     </row>
     <row r="70">
@@ -1611,16 +990,7 @@
         <v>-0.9270436784802932</v>
       </c>
       <c r="B70" t="n">
-        <v>-0.937088459158547</v>
-      </c>
-      <c r="C70" t="n">
-        <v>-0.9449297866288573</v>
-      </c>
-      <c r="D70" t="n">
-        <v>-0.9516231827583914</v>
-      </c>
-      <c r="E70" t="n">
-        <v>-0.9574292925034745</v>
+        <v>-0.9257346729520266</v>
       </c>
     </row>
     <row r="71">
@@ -1628,16 +998,7 @@
         <v>-0.9403635767654905</v>
       </c>
       <c r="B71" t="n">
-        <v>-0.9499034386175155</v>
-      </c>
-      <c r="C71" t="n">
-        <v>-0.9557380740186042</v>
-      </c>
-      <c r="D71" t="n">
-        <v>-0.9618411760663995</v>
-      </c>
-      <c r="E71" t="n">
-        <v>-0.9674756748237306</v>
+        <v>-0.9326717488079571</v>
       </c>
     </row>
     <row r="72">
@@ -1645,16 +1006,7 @@
         <v>-0.9495427221639137</v>
       </c>
       <c r="B72" t="n">
-        <v>-0.9650793130130542</v>
-      </c>
-      <c r="C72" t="n">
-        <v>-0.970740035145492</v>
-      </c>
-      <c r="D72" t="n">
-        <v>-0.976358452854483</v>
-      </c>
-      <c r="E72" t="n">
-        <v>-0.9816997333148115</v>
+        <v>-0.9500538632137684</v>
       </c>
     </row>
     <row r="73">
@@ -1662,16 +1014,7 @@
         <v>-0.9059107260010469</v>
       </c>
       <c r="B73" t="n">
-        <v>-0.9175009991113435</v>
-      </c>
-      <c r="C73" t="n">
-        <v>-0.9260574647428598</v>
-      </c>
-      <c r="D73" t="n">
-        <v>-0.9328978256666528</v>
-      </c>
-      <c r="E73" t="n">
-        <v>-0.9387608855739981</v>
+        <v>-0.9088475505827558</v>
       </c>
     </row>
     <row r="74">
@@ -1679,16 +1022,7 @@
         <v>-0.8996768831961431</v>
       </c>
       <c r="B74" t="n">
-        <v>-0.9076418523924803</v>
-      </c>
-      <c r="C74" t="n">
-        <v>-0.9160269894697695</v>
-      </c>
-      <c r="D74" t="n">
-        <v>-0.922977565272151</v>
-      </c>
-      <c r="E74" t="n">
-        <v>-0.9289141057466622</v>
+        <v>-0.900364479514256</v>
       </c>
     </row>
     <row r="75">
@@ -1696,16 +1030,7 @@
         <v>-0.9062102036129897</v>
       </c>
       <c r="B75" t="n">
-        <v>-0.9259213570007899</v>
-      </c>
-      <c r="C75" t="n">
-        <v>-0.9328903640409144</v>
-      </c>
-      <c r="D75" t="n">
-        <v>-0.9392879288417626</v>
-      </c>
-      <c r="E75" t="n">
-        <v>-0.9449660203502567</v>
+        <v>-0.9136031432537925</v>
       </c>
     </row>
     <row r="76">
@@ -1713,16 +1038,7 @@
         <v>-0.9241557286340758</v>
       </c>
       <c r="B76" t="n">
-        <v>-0.9412589896967423</v>
-      </c>
-      <c r="C76" t="n">
-        <v>-0.9460695436883876</v>
-      </c>
-      <c r="D76" t="n">
-        <v>-0.9517909966393341</v>
-      </c>
-      <c r="E76" t="n">
-        <v>-0.9572161252851179</v>
+        <v>-0.9220785928443367</v>
       </c>
     </row>
     <row r="77">
@@ -1730,16 +1046,7 @@
         <v>-0.9346997860770907</v>
       </c>
       <c r="B77" t="n">
-        <v>-0.947781432269701</v>
-      </c>
-      <c r="C77" t="n">
-        <v>-0.9560946656123429</v>
-      </c>
-      <c r="D77" t="n">
-        <v>-0.9631212738434519</v>
-      </c>
-      <c r="E77" t="n">
-        <v>-0.9691432503423549</v>
+        <v>-0.9377465107636869</v>
       </c>
     </row>
     <row r="78">
@@ -1747,16 +1054,7 @@
         <v>-0.947788324933871</v>
       </c>
       <c r="B78" t="n">
-        <v>-0.9499062235955328</v>
-      </c>
-      <c r="C78" t="n">
-        <v>-0.9571757815939659</v>
-      </c>
-      <c r="D78" t="n">
-        <v>-0.9641960154628583</v>
-      </c>
-      <c r="E78" t="n">
-        <v>-0.9703077013567357</v>
+        <v>-0.943916974865137</v>
       </c>
     </row>
     <row r="79">
@@ -1764,16 +1062,7 @@
         <v>-0.9539208019047053</v>
       </c>
       <c r="B79" t="n">
-        <v>-0.9630843908280843</v>
-      </c>
-      <c r="C79" t="n">
-        <v>-0.9699173056868114</v>
-      </c>
-      <c r="D79" t="n">
-        <v>-0.9764717407192867</v>
-      </c>
-      <c r="E79" t="n">
-        <v>-0.9823230585681828</v>
+        <v>-0.9505965551578632</v>
       </c>
     </row>
     <row r="80">
@@ -1781,16 +1070,7 @@
         <v>-0.9398249541228219</v>
       </c>
       <c r="B80" t="n">
-        <v>-0.9504480245281466</v>
-      </c>
-      <c r="C80" t="n">
-        <v>-0.9572581090465688</v>
-      </c>
-      <c r="D80" t="n">
-        <v>-0.9638687207389467</v>
-      </c>
-      <c r="E80" t="n">
-        <v>-0.9697309340985137</v>
+        <v>-0.9391928611727177</v>
       </c>
     </row>
     <row r="81">
@@ -1798,16 +1078,7 @@
         <v>-0.9389107006948331</v>
       </c>
       <c r="B81" t="n">
-        <v>-0.9520100562630468</v>
-      </c>
-      <c r="C81" t="n">
-        <v>-0.955972281102403</v>
-      </c>
-      <c r="D81" t="n">
-        <v>-0.9614901394363555</v>
-      </c>
-      <c r="E81" t="n">
-        <v>-0.9668439979011004</v>
+        <v>-0.9337854139989691</v>
       </c>
     </row>
     <row r="82">
@@ -1815,16 +1086,7 @@
         <v>-0.9491722901364883</v>
       </c>
       <c r="B82" t="n">
-        <v>-0.952840842044275</v>
-      </c>
-      <c r="C82" t="n">
-        <v>-0.9614815201819998</v>
-      </c>
-      <c r="D82" t="n">
-        <v>-0.9682988182860713</v>
-      </c>
-      <c r="E82" t="n">
-        <v>-0.9742374197034004</v>
+        <v>-0.9517842242221309</v>
       </c>
     </row>
     <row r="83">
@@ -1832,16 +1094,7 @@
         <v>-0.9512850121579344</v>
       </c>
       <c r="B83" t="n">
-        <v>-0.9558901767432015</v>
-      </c>
-      <c r="C83" t="n">
-        <v>-0.9616298734547792</v>
-      </c>
-      <c r="D83" t="n">
-        <v>-0.9678288478641617</v>
-      </c>
-      <c r="E83" t="n">
-        <v>-0.973564228736452</v>
+        <v>-0.9437728362876102</v>
       </c>
     </row>
     <row r="84">
@@ -1849,16 +1102,7 @@
         <v>-0.9384406290818532</v>
       </c>
       <c r="B84" t="n">
-        <v>-0.9520267146670661</v>
-      </c>
-      <c r="C84" t="n">
-        <v>-0.959719134791485</v>
-      </c>
-      <c r="D84" t="n">
-        <v>-0.9667153314660037</v>
-      </c>
-      <c r="E84" t="n">
-        <v>-0.9727448974288501</v>
+        <v>-0.940553431801145</v>
       </c>
     </row>
     <row r="85">
@@ -1866,16 +1110,7 @@
         <v>-0.9447793624001949</v>
       </c>
       <c r="B85" t="n">
-        <v>-0.9516718921526599</v>
-      </c>
-      <c r="C85" t="n">
-        <v>-0.959630332205538</v>
-      </c>
-      <c r="D85" t="n">
-        <v>-0.9665625724325551</v>
-      </c>
-      <c r="E85" t="n">
-        <v>-0.9725281016395655</v>
+        <v>-0.9421893674939907</v>
       </c>
     </row>
     <row r="86">
@@ -1883,16 +1118,7 @@
         <v>-0.9629647926046176</v>
       </c>
       <c r="B86" t="n">
-        <v>-0.9719055866515629</v>
-      </c>
-      <c r="C86" t="n">
-        <v>-0.9773516415217464</v>
-      </c>
-      <c r="D86" t="n">
-        <v>-0.9834411379946238</v>
-      </c>
-      <c r="E86" t="n">
-        <v>-0.9891469033627794</v>
+        <v>-0.9589936824095758</v>
       </c>
     </row>
     <row r="87">
@@ -1900,16 +1126,7 @@
         <v>-0.937415900080127</v>
       </c>
       <c r="B87" t="n">
-        <v>-0.9457490929984573</v>
-      </c>
-      <c r="C87" t="n">
-        <v>-0.9525128313775949</v>
-      </c>
-      <c r="D87" t="n">
-        <v>-0.9591655120488266</v>
-      </c>
-      <c r="E87" t="n">
-        <v>-0.9651126554954611</v>
+        <v>-0.9372865024561045</v>
       </c>
     </row>
     <row r="88">
@@ -1917,16 +1134,7 @@
         <v>-1.020412893993602</v>
       </c>
       <c r="B88" t="n">
-        <v>-1.029248843458708</v>
-      </c>
-      <c r="C88" t="n">
-        <v>-1.002772726493799</v>
-      </c>
-      <c r="D88" t="n">
-        <v>-1.031715051841618</v>
-      </c>
-      <c r="E88" t="n">
-        <v>-1.056023283258919</v>
+        <v>-1.023492843582981</v>
       </c>
     </row>
     <row r="89">
@@ -1934,16 +1142,7 @@
         <v>-3.077836203449574</v>
       </c>
       <c r="B89" t="n">
-        <v>-3.662563986866506</v>
-      </c>
-      <c r="C89" t="n">
-        <v>-3.544584509155294</v>
-      </c>
-      <c r="D89" t="n">
-        <v>-3.48650408002361</v>
-      </c>
-      <c r="E89" t="n">
-        <v>-3.45640863352057</v>
+        <v>-3.133443061682959</v>
       </c>
     </row>
     <row r="90">
@@ -1951,16 +1150,7 @@
         <v>-1.109281978064801</v>
       </c>
       <c r="B90" t="n">
-        <v>-1.046980043555204</v>
-      </c>
-      <c r="C90" t="n">
-        <v>-1.062841316084935</v>
-      </c>
-      <c r="D90" t="n">
-        <v>-1.069625419797497</v>
-      </c>
-      <c r="E90" t="n">
-        <v>-1.072495489903296</v>
+        <v>-1.070293886193705</v>
       </c>
     </row>
     <row r="91">
@@ -1968,16 +1158,7 @@
         <v>-5.895965939427887</v>
       </c>
       <c r="B91" t="n">
-        <v>-4.561962270551209</v>
-      </c>
-      <c r="C91" t="n">
-        <v>-4.832294325137314</v>
-      </c>
-      <c r="D91" t="n">
-        <v>-4.969626081454751</v>
-      </c>
-      <c r="E91" t="n">
-        <v>-5.046414161702709</v>
+        <v>-5.612151274854573</v>
       </c>
     </row>
     <row r="92">
@@ -1985,16 +1166,7 @@
         <v>-0.6868016961049986</v>
       </c>
       <c r="B92" t="n">
-        <v>-0.7952869460877575</v>
-      </c>
-      <c r="C92" t="n">
-        <v>-0.7555797275772951</v>
-      </c>
-      <c r="D92" t="n">
-        <v>-0.7418086113507613</v>
-      </c>
-      <c r="E92" t="n">
-        <v>-0.7381721822364415</v>
+        <v>-0.6801122001088409</v>
       </c>
     </row>
     <row r="93">
@@ -2002,16 +1174,7 @@
         <v>-0.9243241847014878</v>
       </c>
       <c r="B93" t="n">
-        <v>-1.273212536322392</v>
-      </c>
-      <c r="C93" t="n">
-        <v>-1.05836482442126</v>
-      </c>
-      <c r="D93" t="n">
-        <v>-1.022853060932617</v>
-      </c>
-      <c r="E93" t="n">
-        <v>-1.016819570079053</v>
+        <v>-0.828478155124021</v>
       </c>
     </row>
     <row r="94">
@@ -2019,16 +1182,7 @@
         <v>-1.2342501327308</v>
       </c>
       <c r="B94" t="n">
-        <v>-1.214318288276648</v>
-      </c>
-      <c r="C94" t="n">
-        <v>-1.213348818442437</v>
-      </c>
-      <c r="D94" t="n">
-        <v>-1.212468997641167</v>
-      </c>
-      <c r="E94" t="n">
-        <v>-1.216113179757316</v>
+        <v>-1.190146238282617</v>
       </c>
     </row>
     <row r="95">
@@ -2036,16 +1190,7 @@
         <v>-0.07523502910609481</v>
       </c>
       <c r="B95" t="n">
-        <v>-0.6334119417191564</v>
-      </c>
-      <c r="C95" t="n">
-        <v>-0.8371658119987405</v>
-      </c>
-      <c r="D95" t="n">
-        <v>-0.9234272201515697</v>
-      </c>
-      <c r="E95" t="n">
-        <v>-0.9629895364501815</v>
+        <v>-0.3728597579824118</v>
       </c>
     </row>
     <row r="96">
@@ -2053,16 +1198,7 @@
         <v>-1.352857986308653</v>
       </c>
       <c r="B96" t="n">
-        <v>-1.399408284735378</v>
-      </c>
-      <c r="C96" t="n">
-        <v>-1.506218887443504</v>
-      </c>
-      <c r="D96" t="n">
-        <v>-1.519765838782421</v>
-      </c>
-      <c r="E96" t="n">
-        <v>-1.522198841862607</v>
+        <v>-1.423384411957669</v>
       </c>
     </row>
   </sheetData>

--- a/PCAcombined_predicted_variables_matrix_10.xlsx
+++ b/PCAcombined_predicted_variables_matrix_10.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B96"/>
+  <dimension ref="A1:D96"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -440,6 +440,12 @@
       <c r="B1" s="1" t="n">
         <v>1</v>
       </c>
+      <c r="C1" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="n">
+        <v>3</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="n">
@@ -448,6 +454,12 @@
       <c r="B2" t="n">
         <v>0.5358485938100153</v>
       </c>
+      <c r="C2" t="n">
+        <v>0.5359028028288716</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.5359717896911682</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="n">
@@ -456,6 +468,12 @@
       <c r="B3" t="n">
         <v>0.5361222490060227</v>
       </c>
+      <c r="C3" t="n">
+        <v>0.5361778740618006</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.5362466811638836</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" t="n">
@@ -464,6 +482,12 @@
       <c r="B4" t="n">
         <v>0.5361282291242463</v>
       </c>
+      <c r="C4" t="n">
+        <v>0.5361840207114116</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.5362527683290448</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="n">
@@ -472,6 +496,12 @@
       <c r="B5" t="n">
         <v>0.5359410685004423</v>
       </c>
+      <c r="C5" t="n">
+        <v>0.5359993320286104</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.5360697283103141</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="n">
@@ -480,6 +510,12 @@
       <c r="B6" t="n">
         <v>0.5360781580568397</v>
       </c>
+      <c r="C6" t="n">
+        <v>0.5361390078218958</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.5362096395621118</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" t="n">
@@ -488,6 +524,12 @@
       <c r="B7" t="n">
         <v>0.5357782064483565</v>
       </c>
+      <c r="C7" t="n">
+        <v>0.5358294255205419</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.5358950693075126</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="n">
@@ -496,6 +538,12 @@
       <c r="B8" t="n">
         <v>0.5359298626978373</v>
       </c>
+      <c r="C8" t="n">
+        <v>0.5359772513260859</v>
+      </c>
+      <c r="D8" t="n">
+        <v>0.5360404071728478</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="n">
@@ -504,6 +552,12 @@
       <c r="B9" t="n">
         <v>0.5358220460031409</v>
       </c>
+      <c r="C9" t="n">
+        <v>0.5358700684305584</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0.5359334628199129</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" t="n">
@@ -512,6 +566,12 @@
       <c r="B10" t="n">
         <v>0.5362564765000982</v>
       </c>
+      <c r="C10" t="n">
+        <v>0.5362997663622348</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.5363603295724866</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="n">
@@ -520,6 +580,12 @@
       <c r="B11" t="n">
         <v>0.5358827491133799</v>
       </c>
+      <c r="C11" t="n">
+        <v>0.5359386409993464</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0.5360066911356866</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="n">
@@ -528,6 +594,12 @@
       <c r="B12" t="n">
         <v>0.5359301798910862</v>
       </c>
+      <c r="C12" t="n">
+        <v>0.535987720892774</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0.5360571912111287</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="n">
@@ -536,6 +608,12 @@
       <c r="B13" t="n">
         <v>0.5359788988394554</v>
       </c>
+      <c r="C13" t="n">
+        <v>0.5360309949813555</v>
+      </c>
+      <c r="D13" t="n">
+        <v>0.5360960232784183</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="n">
@@ -544,6 +622,12 @@
       <c r="B14" t="n">
         <v>0.5360032211117876</v>
       </c>
+      <c r="C14" t="n">
+        <v>0.5360600690481644</v>
+      </c>
+      <c r="D14" t="n">
+        <v>0.5361285406884737</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="n">
@@ -552,6 +636,12 @@
       <c r="B15" t="n">
         <v>0.5359382420707978</v>
       </c>
+      <c r="C15" t="n">
+        <v>0.5359888604093915</v>
+      </c>
+      <c r="D15" t="n">
+        <v>0.5360539565412499</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="n">
@@ -560,6 +650,12 @@
       <c r="B16" t="n">
         <v>0.5361776266843249</v>
       </c>
+      <c r="C16" t="n">
+        <v>0.5362272381310698</v>
+      </c>
+      <c r="D16" t="n">
+        <v>0.5362913639439915</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="n">
@@ -568,6 +664,12 @@
       <c r="B17" t="n">
         <v>0.53623064800095</v>
       </c>
+      <c r="C17" t="n">
+        <v>0.5362798281146868</v>
+      </c>
+      <c r="D17" t="n">
+        <v>0.5363472714940687</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" t="n">
@@ -576,6 +678,12 @@
       <c r="B18" t="n">
         <v>0.5359071467534902</v>
       </c>
+      <c r="C18" t="n">
+        <v>0.5359557066642994</v>
+      </c>
+      <c r="D18" t="n">
+        <v>0.5360204173425582</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="n">
@@ -584,6 +692,12 @@
       <c r="B19" t="n">
         <v>0.5361719621114179</v>
       </c>
+      <c r="C19" t="n">
+        <v>0.536230097160481</v>
+      </c>
+      <c r="D19" t="n">
+        <v>0.5362994692663794</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="n">
@@ -592,6 +706,12 @@
       <c r="B20" t="n">
         <v>0.5361111250221452</v>
       </c>
+      <c r="C20" t="n">
+        <v>0.536163724706031</v>
+      </c>
+      <c r="D20" t="n">
+        <v>0.5362298289178303</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" t="n">
@@ -600,6 +720,12 @@
       <c r="B21" t="n">
         <v>0.536271783710948</v>
       </c>
+      <c r="C21" t="n">
+        <v>0.5363266936455547</v>
+      </c>
+      <c r="D21" t="n">
+        <v>0.5363940928332431</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="n">
@@ -608,6 +734,12 @@
       <c r="B22" t="n">
         <v>0.5361222950364011</v>
       </c>
+      <c r="C22" t="n">
+        <v>0.5361772503730408</v>
+      </c>
+      <c r="D22" t="n">
+        <v>0.5362455220335681</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" t="n">
@@ -616,6 +748,12 @@
       <c r="B23" t="n">
         <v>0.535865761494318</v>
       </c>
+      <c r="C23" t="n">
+        <v>0.5359258287946231</v>
+      </c>
+      <c r="D23" t="n">
+        <v>0.5359963214384941</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="n">
@@ -624,6 +762,12 @@
       <c r="B24" t="n">
         <v>0.5365395258087992</v>
       </c>
+      <c r="C24" t="n">
+        <v>0.5366336180478833</v>
+      </c>
+      <c r="D24" t="n">
+        <v>0.5367421525371269</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" t="n">
@@ -632,6 +776,12 @@
       <c r="B25" t="n">
         <v>0.5362109839740372</v>
       </c>
+      <c r="C25" t="n">
+        <v>0.5362431439054693</v>
+      </c>
+      <c r="D25" t="n">
+        <v>0.5362993501299546</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="n">
@@ -640,6 +790,12 @@
       <c r="B26" t="n">
         <v>0.5360194537530255</v>
       </c>
+      <c r="C26" t="n">
+        <v>0.5360878875981628</v>
+      </c>
+      <c r="D26" t="n">
+        <v>0.5361653965114792</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="n">
@@ -648,6 +804,12 @@
       <c r="B27" t="n">
         <v>0.5359911103515858</v>
       </c>
+      <c r="C27" t="n">
+        <v>0.5360418380324141</v>
+      </c>
+      <c r="D27" t="n">
+        <v>0.5361092079178494</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="n">
@@ -656,6 +818,12 @@
       <c r="B28" t="n">
         <v>0.5364327565184305</v>
       </c>
+      <c r="C28" t="n">
+        <v>0.5364847098739065</v>
+      </c>
+      <c r="D28" t="n">
+        <v>0.536554647099542</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" t="n">
@@ -664,6 +832,12 @@
       <c r="B29" t="n">
         <v>0.5368212037639079</v>
       </c>
+      <c r="C29" t="n">
+        <v>0.5368790923806339</v>
+      </c>
+      <c r="D29" t="n">
+        <v>0.5369648095930529</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="n">
@@ -672,6 +846,12 @@
       <c r="B30" t="n">
         <v>0.536379396134439</v>
       </c>
+      <c r="C30" t="n">
+        <v>0.5364239350766187</v>
+      </c>
+      <c r="D30" t="n">
+        <v>0.5364901250695782</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="n">
@@ -680,6 +860,12 @@
       <c r="B31" t="n">
         <v>0.5357488697103219</v>
       </c>
+      <c r="C31" t="n">
+        <v>0.5357971830253809</v>
+      </c>
+      <c r="D31" t="n">
+        <v>0.5358601115198769</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="n">
@@ -688,6 +874,12 @@
       <c r="B32" t="n">
         <v>0.5363405014874947</v>
       </c>
+      <c r="C32" t="n">
+        <v>0.5363835755263651</v>
+      </c>
+      <c r="D32" t="n">
+        <v>0.5364454677212656</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" t="n">
@@ -696,6 +888,12 @@
       <c r="B33" t="n">
         <v>0.5364602972145824</v>
       </c>
+      <c r="C33" t="n">
+        <v>0.5365051789459447</v>
+      </c>
+      <c r="D33" t="n">
+        <v>0.5365683548343425</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="n">
@@ -704,6 +902,12 @@
       <c r="B34" t="n">
         <v>0.5355281277068132</v>
       </c>
+      <c r="C34" t="n">
+        <v>0.5355659284882405</v>
+      </c>
+      <c r="D34" t="n">
+        <v>0.5356253349841753</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="n">
@@ -712,6 +916,12 @@
       <c r="B35" t="n">
         <v>0.5364691967037907</v>
       </c>
+      <c r="C35" t="n">
+        <v>0.5365217816003783</v>
+      </c>
+      <c r="D35" t="n">
+        <v>0.5365894371094123</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="n">
@@ -720,6 +930,12 @@
       <c r="B36" t="n">
         <v>0.5364652140538435</v>
       </c>
+      <c r="C36" t="n">
+        <v>0.5365138046555874</v>
+      </c>
+      <c r="D36" t="n">
+        <v>0.5365789205585959</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="n">
@@ -728,6 +944,12 @@
       <c r="B37" t="n">
         <v>0.5364549835381862</v>
       </c>
+      <c r="C37" t="n">
+        <v>0.5365002247082475</v>
+      </c>
+      <c r="D37" t="n">
+        <v>0.5365630822984034</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="n">
@@ -736,6 +958,12 @@
       <c r="B38" t="n">
         <v>0.5363818013154813</v>
       </c>
+      <c r="C38" t="n">
+        <v>0.5364317628143885</v>
+      </c>
+      <c r="D38" t="n">
+        <v>0.5364977247138017</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="n">
@@ -744,6 +972,12 @@
       <c r="B39" t="n">
         <v>0.5363737286710932</v>
       </c>
+      <c r="C39" t="n">
+        <v>0.5364206464584156</v>
+      </c>
+      <c r="D39" t="n">
+        <v>0.5364840030411024</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="n">
@@ -752,6 +986,12 @@
       <c r="B40" t="n">
         <v>0.5364582162321822</v>
       </c>
+      <c r="C40" t="n">
+        <v>0.5365085264481504</v>
+      </c>
+      <c r="D40" t="n">
+        <v>0.5365738220706859</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" t="n">
@@ -760,6 +1000,12 @@
       <c r="B41" t="n">
         <v>0.5363245043370861</v>
       </c>
+      <c r="C41" t="n">
+        <v>0.5363771592963408</v>
+      </c>
+      <c r="D41" t="n">
+        <v>0.5364448380923167</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="n">
@@ -768,6 +1014,12 @@
       <c r="B42" t="n">
         <v>0.5363918711445003</v>
       </c>
+      <c r="C42" t="n">
+        <v>0.5364373540515965</v>
+      </c>
+      <c r="D42" t="n">
+        <v>0.5365009423650463</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="n">
@@ -776,6 +1028,12 @@
       <c r="B43" t="n">
         <v>0.5364073518385893</v>
       </c>
+      <c r="C43" t="n">
+        <v>0.536454906651623</v>
+      </c>
+      <c r="D43" t="n">
+        <v>0.5365194613536437</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="n">
@@ -784,6 +1042,12 @@
       <c r="B44" t="n">
         <v>0.5364270951259694</v>
       </c>
+      <c r="C44" t="n">
+        <v>0.5364745095115796</v>
+      </c>
+      <c r="D44" t="n">
+        <v>0.5365382674943786</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="n">
@@ -792,6 +1056,12 @@
       <c r="B45" t="n">
         <v>0.5364619792754534</v>
       </c>
+      <c r="C45" t="n">
+        <v>0.536502129759169</v>
+      </c>
+      <c r="D45" t="n">
+        <v>0.5365615360454993</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="n">
@@ -800,6 +1070,12 @@
       <c r="B46" t="n">
         <v>0.5352870974463444</v>
       </c>
+      <c r="C46" t="n">
+        <v>0.5353310544089328</v>
+      </c>
+      <c r="D46" t="n">
+        <v>0.5353913545687843</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" t="n">
@@ -808,6 +1084,12 @@
       <c r="B47" t="n">
         <v>0.5354526308987587</v>
       </c>
+      <c r="C47" t="n">
+        <v>0.5354956829867774</v>
+      </c>
+      <c r="D47" t="n">
+        <v>0.5355556780077749</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="n">
@@ -816,6 +1098,12 @@
       <c r="B48" t="n">
         <v>0.5355358844936976</v>
       </c>
+      <c r="C48" t="n">
+        <v>0.5355808134469672</v>
+      </c>
+      <c r="D48" t="n">
+        <v>0.535642074803279</v>
+      </c>
     </row>
     <row r="49">
       <c r="A49" t="n">
@@ -824,6 +1112,12 @@
       <c r="B49" t="n">
         <v>0.5356607488260583</v>
       </c>
+      <c r="C49" t="n">
+        <v>0.5357073243611377</v>
+      </c>
+      <c r="D49" t="n">
+        <v>0.5357699072445803</v>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="n">
@@ -832,6 +1126,12 @@
       <c r="B50" t="n">
         <v>0.5359790028421363</v>
       </c>
+      <c r="C50" t="n">
+        <v>0.5360285217036262</v>
+      </c>
+      <c r="D50" t="n">
+        <v>0.5360929548004518</v>
+      </c>
     </row>
     <row r="51">
       <c r="A51" t="n">
@@ -840,6 +1140,12 @@
       <c r="B51" t="n">
         <v>0.53553835610268</v>
       </c>
+      <c r="C51" t="n">
+        <v>0.5355833700938869</v>
+      </c>
+      <c r="D51" t="n">
+        <v>0.5356450625115643</v>
+      </c>
     </row>
     <row r="52">
       <c r="A52" t="n">
@@ -848,6 +1154,12 @@
       <c r="B52" t="n">
         <v>0.53553835610268</v>
       </c>
+      <c r="C52" t="n">
+        <v>0.5355833700938869</v>
+      </c>
+      <c r="D52" t="n">
+        <v>0.5356450625115643</v>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="n">
@@ -856,6 +1168,12 @@
       <c r="B53" t="n">
         <v>0.5353975394158936</v>
       </c>
+      <c r="C53" t="n">
+        <v>0.5354387229633902</v>
+      </c>
+      <c r="D53" t="n">
+        <v>0.5354976953958988</v>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="n">
@@ -864,6 +1182,12 @@
       <c r="B54" t="n">
         <v>0.5359262859041306</v>
       </c>
+      <c r="C54" t="n">
+        <v>0.5359734373518106</v>
+      </c>
+      <c r="D54" t="n">
+        <v>0.5360365258587603</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="n">
@@ -872,6 +1196,12 @@
       <c r="B55" t="n">
         <v>0.5354364715628157</v>
       </c>
+      <c r="C55" t="n">
+        <v>0.535482706891847</v>
+      </c>
+      <c r="D55" t="n">
+        <v>0.5355441900797067</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="n">
@@ -880,6 +1210,12 @@
       <c r="B56" t="n">
         <v>0.5354933290950048</v>
       </c>
+      <c r="C56" t="n">
+        <v>0.5355402343294495</v>
+      </c>
+      <c r="D56" t="n">
+        <v>0.5356023509476965</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="n">
@@ -888,6 +1224,12 @@
       <c r="B57" t="n">
         <v>0.5354754569634516</v>
       </c>
+      <c r="C57" t="n">
+        <v>0.5355172831766859</v>
+      </c>
+      <c r="D57" t="n">
+        <v>0.5355761955279622</v>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="n">
@@ -896,6 +1238,12 @@
       <c r="B58" t="n">
         <v>0.535366762868269</v>
       </c>
+      <c r="C58" t="n">
+        <v>0.535414254953168</v>
+      </c>
+      <c r="D58" t="n">
+        <v>0.535476298653396</v>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="n">
@@ -904,6 +1252,12 @@
       <c r="B59" t="n">
         <v>0.5355558051518452</v>
       </c>
+      <c r="C59" t="n">
+        <v>0.5356037808199242</v>
+      </c>
+      <c r="D59" t="n">
+        <v>0.5356669154467846</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="n">
@@ -912,6 +1266,12 @@
       <c r="B60" t="n">
         <v>0.5357456889604736</v>
       </c>
+      <c r="C60" t="n">
+        <v>0.5357960949975793</v>
+      </c>
+      <c r="D60" t="n">
+        <v>0.5358609480353047</v>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="n">
@@ -920,6 +1280,12 @@
       <c r="B61" t="n">
         <v>0.5362374519784781</v>
       </c>
+      <c r="C61" t="n">
+        <v>0.5362854952361847</v>
+      </c>
+      <c r="D61" t="n">
+        <v>0.53634927753665</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="n">
@@ -928,6 +1294,12 @@
       <c r="B62" t="n">
         <v>0.5353253643925778</v>
       </c>
+      <c r="C62" t="n">
+        <v>0.5353691823314621</v>
+      </c>
+      <c r="D62" t="n">
+        <v>0.5354277513217899</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="n">
@@ -936,6 +1308,12 @@
       <c r="B63" t="n">
         <v>0.5356792428309365</v>
       </c>
+      <c r="C63" t="n">
+        <v>0.5357275308891029</v>
+      </c>
+      <c r="D63" t="n">
+        <v>0.5357910275049459</v>
+      </c>
     </row>
     <row r="64">
       <c r="A64" t="n">
@@ -944,6 +1322,12 @@
       <c r="B64" t="n">
         <v>0.5355292730282575</v>
       </c>
+      <c r="C64" t="n">
+        <v>0.5355756106719851</v>
+      </c>
+      <c r="D64" t="n">
+        <v>0.5356373373929808</v>
+      </c>
     </row>
     <row r="65">
       <c r="A65" t="n">
@@ -952,6 +1336,12 @@
       <c r="B65" t="n">
         <v>0.5359787953484491</v>
       </c>
+      <c r="C65" t="n">
+        <v>0.5360284068953955</v>
+      </c>
+      <c r="D65" t="n">
+        <v>0.5360934152310521</v>
+      </c>
     </row>
     <row r="66">
       <c r="A66" t="n">
@@ -960,6 +1350,12 @@
       <c r="B66" t="n">
         <v>0.5355502847787634</v>
       </c>
+      <c r="C66" t="n">
+        <v>0.5355985085366969</v>
+      </c>
+      <c r="D66" t="n">
+        <v>0.5356601098815591</v>
+      </c>
     </row>
     <row r="67">
       <c r="A67" t="n">
@@ -968,6 +1364,12 @@
       <c r="B67" t="n">
         <v>0.5355567676903679</v>
       </c>
+      <c r="C67" t="n">
+        <v>0.5356041884192287</v>
+      </c>
+      <c r="D67" t="n">
+        <v>0.5356660608650348</v>
+      </c>
     </row>
     <row r="68">
       <c r="A68" t="n">
@@ -976,6 +1378,12 @@
       <c r="B68" t="n">
         <v>-0.9223500117067812</v>
       </c>
+      <c r="C68" t="n">
+        <v>-0.9238546925431027</v>
+      </c>
+      <c r="D68" t="n">
+        <v>-0.9265735509441747</v>
+      </c>
     </row>
     <row r="69">
       <c r="A69" t="n">
@@ -984,6 +1392,12 @@
       <c r="B69" t="n">
         <v>-0.9372835408826093</v>
       </c>
+      <c r="C69" t="n">
+        <v>-0.9390205627923717</v>
+      </c>
+      <c r="D69" t="n">
+        <v>-0.9419852172996652</v>
+      </c>
     </row>
     <row r="70">
       <c r="A70" t="n">
@@ -992,6 +1406,12 @@
       <c r="B70" t="n">
         <v>-0.9257346729520266</v>
       </c>
+      <c r="C70" t="n">
+        <v>-0.9269360573897507</v>
+      </c>
+      <c r="D70" t="n">
+        <v>-0.9295242010580526</v>
+      </c>
     </row>
     <row r="71">
       <c r="A71" t="n">
@@ -1000,6 +1420,12 @@
       <c r="B71" t="n">
         <v>-0.9326717488079571</v>
       </c>
+      <c r="C71" t="n">
+        <v>-0.9342325999601916</v>
+      </c>
+      <c r="D71" t="n">
+        <v>-0.9369801460720641</v>
+      </c>
     </row>
     <row r="72">
       <c r="A72" t="n">
@@ -1008,6 +1434,12 @@
       <c r="B72" t="n">
         <v>-0.9500538632137684</v>
       </c>
+      <c r="C72" t="n">
+        <v>-0.9512579347995891</v>
+      </c>
+      <c r="D72" t="n">
+        <v>-0.953750661661853</v>
+      </c>
     </row>
     <row r="73">
       <c r="A73" t="n">
@@ -1016,6 +1448,12 @@
       <c r="B73" t="n">
         <v>-0.9088475505827558</v>
       </c>
+      <c r="C73" t="n">
+        <v>-0.9100994585510791</v>
+      </c>
+      <c r="D73" t="n">
+        <v>-0.9126458055338559</v>
+      </c>
     </row>
     <row r="74">
       <c r="A74" t="n">
@@ -1024,6 +1462,12 @@
       <c r="B74" t="n">
         <v>-0.900364479514256</v>
       </c>
+      <c r="C74" t="n">
+        <v>-0.9011497848298614</v>
+      </c>
+      <c r="D74" t="n">
+        <v>-0.9034086730799118</v>
+      </c>
     </row>
     <row r="75">
       <c r="A75" t="n">
@@ -1032,6 +1476,12 @@
       <c r="B75" t="n">
         <v>-0.9136031432537925</v>
       </c>
+      <c r="C75" t="n">
+        <v>-0.9150700503522122</v>
+      </c>
+      <c r="D75" t="n">
+        <v>-0.9177702205172155</v>
+      </c>
     </row>
     <row r="76">
       <c r="A76" t="n">
@@ -1040,6 +1490,12 @@
       <c r="B76" t="n">
         <v>-0.9220785928443367</v>
       </c>
+      <c r="C76" t="n">
+        <v>-0.9239659348575886</v>
+      </c>
+      <c r="D76" t="n">
+        <v>-0.9270604643648742</v>
+      </c>
     </row>
     <row r="77">
       <c r="A77" t="n">
@@ -1048,6 +1504,12 @@
       <c r="B77" t="n">
         <v>-0.9377465107636869</v>
       </c>
+      <c r="C77" t="n">
+        <v>-0.9391475610073277</v>
+      </c>
+      <c r="D77" t="n">
+        <v>-0.9418636010045546</v>
+      </c>
     </row>
     <row r="78">
       <c r="A78" t="n">
@@ -1056,6 +1518,12 @@
       <c r="B78" t="n">
         <v>-0.943916974865137</v>
       </c>
+      <c r="C78" t="n">
+        <v>-0.9439343278952363</v>
+      </c>
+      <c r="D78" t="n">
+        <v>-0.9457164029736738</v>
+      </c>
     </row>
     <row r="79">
       <c r="A79" t="n">
@@ -1064,6 +1532,12 @@
       <c r="B79" t="n">
         <v>-0.9505965551578632</v>
       </c>
+      <c r="C79" t="n">
+        <v>-0.9516452117432389</v>
+      </c>
+      <c r="D79" t="n">
+        <v>-0.9540411032620536</v>
+      </c>
     </row>
     <row r="80">
       <c r="A80" t="n">
@@ -1072,6 +1546,12 @@
       <c r="B80" t="n">
         <v>-0.9391928611727177</v>
       </c>
+      <c r="C80" t="n">
+        <v>-0.9399227013242404</v>
+      </c>
+      <c r="D80" t="n">
+        <v>-0.9422643457771128</v>
+      </c>
     </row>
     <row r="81">
       <c r="A81" t="n">
@@ -1080,6 +1560,12 @@
       <c r="B81" t="n">
         <v>-0.9337854139989691</v>
       </c>
+      <c r="C81" t="n">
+        <v>-0.9348990272293433</v>
+      </c>
+      <c r="D81" t="n">
+        <v>-0.9374509959388594</v>
+      </c>
     </row>
     <row r="82">
       <c r="A82" t="n">
@@ -1088,6 +1574,12 @@
       <c r="B82" t="n">
         <v>-0.9517842242221309</v>
       </c>
+      <c r="C82" t="n">
+        <v>-0.951286262493733</v>
+      </c>
+      <c r="D82" t="n">
+        <v>-0.9525947343769943</v>
+      </c>
     </row>
     <row r="83">
       <c r="A83" t="n">
@@ -1096,6 +1588,12 @@
       <c r="B83" t="n">
         <v>-0.9437728362876102</v>
       </c>
+      <c r="C83" t="n">
+        <v>-0.944375769418612</v>
+      </c>
+      <c r="D83" t="n">
+        <v>-0.9465276035510142</v>
+      </c>
     </row>
     <row r="84">
       <c r="A84" t="n">
@@ -1104,6 +1602,12 @@
       <c r="B84" t="n">
         <v>-0.940553431801145</v>
       </c>
+      <c r="C84" t="n">
+        <v>-0.9418125702080242</v>
+      </c>
+      <c r="D84" t="n">
+        <v>-0.9444966068378394</v>
+      </c>
     </row>
     <row r="85">
       <c r="A85" t="n">
@@ -1112,6 +1616,12 @@
       <c r="B85" t="n">
         <v>-0.9421893674939907</v>
       </c>
+      <c r="C85" t="n">
+        <v>-0.9430395325766996</v>
+      </c>
+      <c r="D85" t="n">
+        <v>-0.9454076598133638</v>
+      </c>
     </row>
     <row r="86">
       <c r="A86" t="n">
@@ -1120,6 +1630,12 @@
       <c r="B86" t="n">
         <v>-0.9589936824095758</v>
       </c>
+      <c r="C86" t="n">
+        <v>-0.9595385760608052</v>
+      </c>
+      <c r="D86" t="n">
+        <v>-0.9616673962042842</v>
+      </c>
     </row>
     <row r="87">
       <c r="A87" t="n">
@@ -1128,6 +1644,12 @@
       <c r="B87" t="n">
         <v>-0.9372865024561045</v>
       </c>
+      <c r="C87" t="n">
+        <v>-0.937766276472596</v>
+      </c>
+      <c r="D87" t="n">
+        <v>-0.9399078696174054</v>
+      </c>
     </row>
     <row r="88">
       <c r="A88" t="n">
@@ -1136,6 +1658,12 @@
       <c r="B88" t="n">
         <v>-1.023492843582981</v>
       </c>
+      <c r="C88" t="n">
+        <v>-1.02842905621213</v>
+      </c>
+      <c r="D88" t="n">
+        <v>-1.034950340761038</v>
+      </c>
     </row>
     <row r="89">
       <c r="A89" t="n">
@@ -1144,6 +1672,12 @@
       <c r="B89" t="n">
         <v>-3.133443061682959</v>
       </c>
+      <c r="C89" t="n">
+        <v>-3.18691786049233</v>
+      </c>
+      <c r="D89" t="n">
+        <v>-3.231750557557921</v>
+      </c>
     </row>
     <row r="90">
       <c r="A90" t="n">
@@ -1152,6 +1686,12 @@
       <c r="B90" t="n">
         <v>-1.070293886193705</v>
       </c>
+      <c r="C90" t="n">
+        <v>-1.051924788687192</v>
+      </c>
+      <c r="D90" t="n">
+        <v>-1.045931062275094</v>
+      </c>
     </row>
     <row r="91">
       <c r="A91" t="n">
@@ -1160,6 +1700,12 @@
       <c r="B91" t="n">
         <v>-5.612151274854573</v>
       </c>
+      <c r="C91" t="n">
+        <v>-5.44171262843576</v>
+      </c>
+      <c r="D91" t="n">
+        <v>-5.33564886090142</v>
+      </c>
     </row>
     <row r="92">
       <c r="A92" t="n">
@@ -1168,6 +1714,12 @@
       <c r="B92" t="n">
         <v>-0.6801122001088409</v>
       </c>
+      <c r="C92" t="n">
+        <v>-0.6854252448915155</v>
+      </c>
+      <c r="D92" t="n">
+        <v>-0.6939593393466014</v>
+      </c>
     </row>
     <row r="93">
       <c r="A93" t="n">
@@ -1176,6 +1728,12 @@
       <c r="B93" t="n">
         <v>-0.828478155124021</v>
       </c>
+      <c r="C93" t="n">
+        <v>-0.8391379525635354</v>
+      </c>
+      <c r="D93" t="n">
+        <v>-0.8703491774512629</v>
+      </c>
     </row>
     <row r="94">
       <c r="A94" t="n">
@@ -1184,6 +1742,12 @@
       <c r="B94" t="n">
         <v>-1.190146238282617</v>
       </c>
+      <c r="C94" t="n">
+        <v>-1.18060674380194</v>
+      </c>
+      <c r="D94" t="n">
+        <v>-1.181209806138263</v>
+      </c>
     </row>
     <row r="95">
       <c r="A95" t="n">
@@ -1192,6 +1756,12 @@
       <c r="B95" t="n">
         <v>-0.3728597579824118</v>
       </c>
+      <c r="C95" t="n">
+        <v>-0.5571168715895708</v>
+      </c>
+      <c r="D95" t="n">
+        <v>-0.6784776890351822</v>
+      </c>
     </row>
     <row r="96">
       <c r="A96" t="n">
@@ -1199,6 +1769,12 @@
       </c>
       <c r="B96" t="n">
         <v>-1.423384411957669</v>
+      </c>
+      <c r="C96" t="n">
+        <v>-1.450659782775537</v>
+      </c>
+      <c r="D96" t="n">
+        <v>-1.464710389259714</v>
       </c>
     </row>
   </sheetData>
